--- a/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Today the subcommittee meets to discuss the future of Air Force long-range strike capabilities and employment concepts. Our distinguished panel of guests testifying today includes Lieutenant General, retired, Robert J. Elder, Jr., Ph.D., faculty, George Mason University; also Mr. Mark Gunzinger, a senior fellow at the Center for Strategic and Budgetary Assessments; and Dr. Rebecca Grant, president, IRIS Independent Research.    These distinguished guests, we are glad to have you here. You have all done a lot of great work, and we look forward to your testimony this afternoon.    During World War II, America gained the ability to strike targets at long range with its massive bomber force. The Air Force flew thousands of conventional daylight precision bombing missions over Europe and Asia. Crossing thousands of miles of ocean, the war in the Pacific was brought to a decisive end by the nuclear strikes on Hiroshima and Nagasaki. From that point, the United States maintained the robust conventional and nuclear long-range strike capabilities needed to deter the aggression of hostile states and assure the security of our allies around the globe.    As the threat environment evolved, so have our capabilities. Stealth and precision standoff weapons enable our Navy and Air Force to penetrate anti-access environments. Our increasing ability to process, exploit, and disseminate intelligence, surveillance, and reconnaissance information helps deter future conflicts and deescalate regional tensions.    That said, our long-range strike capabilities must evolve further to address the range of challenges posed by the rapid and threatening rise of China; a resurgent and expansionist Russia; a subversive and terrorist-supporting Iran; and an unpredictable and provocative North Korea. China, Russia, and North Korea are established nuclear powers, and Iran, regardless of the negotiated P5 agreement, remains a nuclear threat in the not-so-distant future.    Adding to this complex security environment, I am concerned about Russia and China rapidly fielding highly capable integrated air defense systems and other anti-access capabilities. The proliferation of these weapon systems is eroding our ability to perform long-range strike with our legacy bomber fleet and standoff precision weapons, thus diminishing our ability to deter and respond to aggression.    The current state of our bomber force is of great concern. The newest B-52 bomber is 53 years old. In at least one Air Force family, three generations of airmen have piloted the Stratofortress in combat engagements from Vietnam to Enduring Freedom. As of September 2015, our Air Force bomber force structure consists of 158 &lt;dagger&gt; total bombers--63 B-1s, 20 B-2s, and 76 B-52 aircraft--with an average age of 39 years. Of the total, only 96 are currently funded for combat service.---------------------------------------------------------------------------    &lt;dagger&gt; Correction for the record: The total number of bombers is 159.---------------------------------------------------------------------------    The Air Force plans on recapitalizing B-1 and B-52 force structure with a smaller fleet of 80 to 100 Long-Range Strike Bombers. As we grapple with the proliferation of anti-access systems in contested environments, dwindling force structure, and continuing budget constraints and uncertainty, it is critically important that we identify the long-range strike capabilities and concepts that we need for the future.    Once again, I want to thank our witnesses for participating in our hearing this afternoon, and I look forward to discussing this important topic.    With that, I turn to my good friend and colleague the ranking member of the subcommittee, Joe Courtney.</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you for holding this hearing on our Air Force long-range strike capabilities. Given the impending award of the contract for the Long-Range Strike Bomber in the coming weeks, this is an excellent opportunity to discuss the future of this critical part of our Nation's power projection abilities.    The Air Force long-range bomber fleet has long provided our Nation with a flexible and effective deterrent tool. From composing one the three legs of our strategic triad to providing a full complement of conventional long-range strike options for decision makers, the ability to project power and convincingly strike from far distances is one of the most important components of our military arsenal today.    Our long-range strike fleet, composed of our B-52s, B-1s and B-2s, are also amongst the oldest aircraft inventory today. However, the current timeline projects that the Long-Range Strike Bomber will not actually be ready for operations until 2030, adding 15 years to the average ages of our existing bombers, effectively making the B-52 eligible for Social Security by the time the Long-Range Strike Bomber comes online.    I am interested in hearing from our witnesses about the kinds of ideas they have in regards to sustaining our current fleet in the years before the new bomber comes on line as well as lessons that we should draw from the longevity of these aircraft as they would apply to this new class. The strategic importance of demonstrating our Nation's long-range strike capability cannot be overstated, especially as it applies to the Asia-Pacific region. As noted by one of our witnesses today, Lieutenant General Elder, our bombers were an important part of deterring North Korean sabre-rattling in 2013. When B-52 bombers flew 6,500 miles from Missouri to South Korea to drop bombs on a test range, North Korea quickly toned down its threatening rhetoric, and the bombers effectively deterred further provocation in a volatile region.    As our near-peer competitors, especially China, develop formidable anti-access/area denial technologies, our ability to maintain a military advantage hinges on our ability to penetrate those defenses. I hope our witnesses will share their views with the committee on how the Long-Range Strike Bomber and long-range strike capabilities generally fit into the strategic priorities of the Asia-Pacific rebalance.    This new program is going to occur at a time of intense budget pressure, not just within the Air Force alone but also the entirety of the Department of Defense. Yet, with the aircraft expected to be in service well into this century, it is important that we get this right. As such, it is important that this panel and this Nation fully understand the challenges ahead and the options available to ensure that we retain a credible and robust long-term strike capabilities well into the future.    Thank you again, Mr. Chairman, and I look forward to the discussion today.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gunzinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gunzinger. Yes, Chairman Forbes, Ranking Member Courtney, members of the subcommittee, thank you as well for inviting us to talk to you today about this really important topic.    I would like to suggest a framework that might help you think about the LRS-B [Long-Range Strike Bomber] and other capabilities in the long-range strike family of systems. Now what I postulate is two competitions. One we call the hiders-finders competition; the other is a salvo competition.    Now the hiders-finders competition, what that is about is developing the capabilities to penetrate contested airspace, contested areas, and an enemy, a thinking enemy who develops countermeasures. It is a cycle. As we develop advantages, they develop countermeasures. Keeping advantage in that cycle in this competition is critically important.    In the 1950s, for example--the B-52 was designed about then; 1952 I think was the first flight--the most significant threat to our bombers was aircraft, interceptors, and surface-to-air fires--artillery. So the B-52 was designed to fly at high altitudes, and they gave it a gun in the tail to defend against fighters until SAMs, surface-to-air missiles, came on the scene in the latter half of that decade in the early 1960s. So the Air Force adapted and started flying B-52s at low altitude so it could terrain mask and hide in ground clutter, and fighters couldn't find them effectively, and it designed the B-1 to be a low-altitude, high-speed sprinter to penetrate contested airspace.    Until, about 1979, DOD [Department of Defense] announced that, well, Russia, or the Soviet Union has developed ``look-down/shoot-down'' radars for its fighters, capable of fighting our bombers at low altitude. So they started a program called the Advanced Technology Bomber Program, which led to the B-2 program to buy 139 B-2s to replace the B-52, and that would be a high-altitude stealthy penetrator. 1990, end of the Soviet Union, we essentially disengaged from this competition. DOD shifted its attention from preparing to fight two regional conflicts against North Korea, Iran, Iraq. They didn't have advanced air defenses, so while it continued to invest in stealth technologies for future platforms, it stopped the B-2 buy at 21 aircraft. And it also shifted the weight of its effort in terms of strike campaigns toward its fighter forces under the assumption that, well, we will be able to deploy our fighter forces very quickly into a theater of conflict, stage them at bases on the borders of our enemies; to bring the high-volume fires. We just didn't need the bombers to do that after the opening stages of a conflict.    The problem is our competitors didn't stop. China, Russia, Iran, and others have developed advanced air defenses--developed them or bought them--that are a real challenge to our current force. So while we modified our current bomber force to stay current and give it new radars and so on over the intervening years, we didn't invest in a new bomber.    Now the second competition is what we call the salvo competition, and that occurs between two adversaries who both have PGMs [precision guided munitions], not just the ability to attack with precision but also defend against the PGMs of an enemy. That is the situation we have today, certainly with Russia, China, North Korea, and Iran. They have capabilities to attack our bases in the western Pacific and the Middle East, all of them. So the assumption DOD made in the 1990s, it said: Well, we will rely mostly for strike on our fighters, and we will stage them really close to bases. Those bases are now at risk. That is an increasingly risky proposition. But we can compensate for that by beginning to use bases that are further away from our adversaries that, frankly, are out of the most immediate threat, out of range of those short-range cruise missiles and ballistic missiles.    And we can also disperse our fighter forces at those close-in bases to expeditionary airfields, civil airfields suitable for military use, as well as military airfields, to complicate the targeting problem of our enemies who have their own PGMs. So what this suggests, both the hider-finder competition and the salvo competition, is we might start thinking about reversing priorities that we established for bombers and fighters back in the 1990s.    Perhaps future air campaigns, the weight of the strike should be provided by long-range strike capabilities. They are stealthy and have large payloads staged at more distant bases. Whereas our fighters at the close-in dispersed posture provide counter-air, help kick down the door, provide close-air support, and other missions rather than relying on those fighters, which have about one-tenth the payload of a bomber and one-fifth the range of a bomber primarily for strike.    The Air Force has made a great start--and DOD has as well--at reengaging in both these competitions with the LRS-B, but it is just a start, and it is only one element of a long-range strike family of systems, which I hope we can get into in your questions. Thank you.    [The prepared statement of Mr. Gunzinger can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mark.    Dr. Grant.</t>
   </si>
   <si>
-    <t>Grant</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Grant. Thank you very much for the opportunity. As my colleagues have said, America's bomber force is one of the truly unique tools of our national security and our international diplomacy. Sadly, today we have at any one time only 16 combat-ready B-2 bombers that are able to take on the most heavily defended types of targets, and it is this situation that we are setting out to correct.    I want to speak very briefly to the capabilities and employment concepts of the bomber and then touch on how the Air Force will manage this program. The first capability, of course, is access, and that does still very much mean stealth. Stealth remains a fundamental design requirement, and we should expect to see improved stealth techniques that have advanced beyond the B-2 and will include electronic warfare and other state-of-the-art survivability techniques.    Range and payload, of course, are what define a bomber and separate it from other types of aircraft. Recall that every bomber design has had to make a tradeoff from the B-17 right to the B-2. So we may expect to see, of course, excellent range, but that will be defined as range from leaving the tanker track. Payload will be a mix of munitions, both the small precise munitions and the heavy munitions for hardened and deeply buried targets. We don't know what parameters the Air Force has chosen this time, but we will expect to see something that has blurred the distinctions between global and theater attack.    Also I think highly important and new in this Long-Range Strike Bomber program will be an open software architecture. That will be very important because this bomber will be new in its communications and data link relay abilities. It should be able to immediately join not only the SATCOM [satellite communications] but the aerial layer networks, those IP [Internet Protocol]-enabled networks that now define the gold standard in battlespace communications.    We expect, of course, for this bomber to roll off with the basics of nuclear capability installed but to proceed to certify that capability quite a bit later after it completes initial flight tests. Most of all I want to see some upgrade capacity here in the winning design. Our bomber will reach initial operating capability perhaps in the mid-2020s--or just a touch later--but continue to operate and fly missions until 2055 and beyond. This bomber, therefore, has to have the ability to do what is asked of it now and also to do a bit more as we look for upgrades and new mission capabilities over time. That means planning now for the airframe with the classic power, space, and cooling, and ability to accommodate those upgrades.    What will this bomber do specifically? It will, of course, participate in the battlespace under joint force commander direction. It will draw on ISR [intelligence, surveillance, reconnaissance], on tankers, and many other things. It will be dependent on stealth fighters, too. But it will have some very unique roles, and those include direct attack; the ability to drop a bomb; not a cruise missile, per se, because cruise missiles are--and other standoff weapons--are not always of capable of taking out every type of target this bomber may be assigned to strike.    We expect that targets in the future that are the most difficult will be a combination of mobile and of separate deeply buried targets. This is a very tough target set, and we need a penetrating bomber with the ability to take out those targets and hold them at risk. We also will see perhaps extensive target sets. A consideration we might not have thought through 5 years ago, but the bomber force here remains a unique strategic tool. It will have to do things like suppress airfields; counter enemy air defenses; and perhaps help hunt, destroy, and contain enemy surface naval vessels and submarines. This points us towards a highly capable force but one that also is big enough to be persistent across these missions. And I echo General Elder's concern; 80 to 100 is a start. I think closer to 150 might be better to assure the persistence in sortie generation.    Let me conclude with a remark about risk reduction and how the Air Force will manage this program. We all are awaiting a down select, and we want to see the best possible stewardship of this important national security capability. The Air Force says that it has taken a rather different approach with this bomber. It has funded both teams to conduct extensive risk reduction of the designs. What this means to us is that the winning design will be far more mature than other types of aircraft programs. And specifically, I believe, quite a bit more mature than the B-2 at a comparable stage of development. This winning design should go into EMD [engineering, manufacturing, development] with some critical work already carried out. For instance, the Air Force has said that they have identified specific risk areas to include propulsion integration--that is the engines--and integration of apertures and antennae, and conducted specific risk-reduction work in these areas. This again marks a bold and different approach, something quite distinct from what we saw with B-2, F-22, or F-35. This means that the Department of Defense's final choice of a winner should reflect analysis of capability, of the ability to proceed quickly through engineering, manufacturing, and development. And it should also reflect some analysis of the winning team's ability to proceed directly toward manufacturing.    To sum it up, the Air Force appears to have taken a rather bold approach, and what this means is we should expect to see a far more mature design. That should also give us in the end confidence in two things: One is the ability to adhere to cost targets from the EMD phase forward; and the second is that the Air Force should be certain that its winning design really has those mandated capabilities and the extra margins that it needs, not only for upgrade capacity for the future, power, cooling, et cetera.    Of course, there are many things in the end that can affect a program, but the risk reduction is unique in this case, has been carried out with a great deal of forethought, and I think should give us a very confident basis from which to proceed to develop a new Long-Range Strike Bomber. Thank you.    [The prepared statement of Dr. Grant can be found in the Appendix on page 49.]</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>400655</t>
   </si>
   <si>
-    <t>K. Michael Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Thank you for being here.    Being the only CPA [certified public accountant] on the subcommittee panel, I'm trying to do the math. The original version was $550 million a copy? At just--$31 billion or $33 billion was the original cost. How do you buy 100 at $550 million apiece for $33 billion? And how does that get less at $41 billion or $58 billion?</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you so much. Thank you again for being here today.    We talked a lot about what has gone into developing the proposed next generation of LRS [long-range strike]. Are we also looking at the adaptability for the future so that whoever is seated here 10 years from now isn't talking about an already obsolete LRS that we are again having to invest in building new aircraft? Something I think we all should be focusing on is we know what we are capable of today, but are we looking into the future in order of adaptability so we are not pouring additional--huge amounts of resources into future aircraft sooner than we need to? Thank you so much.</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Well, I am going to apologize in advance; I am going to be the cynic here. And, once again, at least with me, I am not as smart as you guys. If you are going to talk with a bunch of acronyms that I don't understand, right away my eyes start to gloss over. If you could kind of ``keep it simple, stupid'' for me, I would appreciate it a little bit.    You know, I am probably one of the biggest hawks on this committee, but it bothers me about things in the future and the amount of money. And maybe I have had too many briefs about the number of missiles that the Chinese are going to throw against aircraft carriers and cruisers and what have you. And they are going to build as many as--maybe one aircraft carrier, they might be able to build, I don't know, 5,000 missiles. I am just looking at it from the CPA standpoint, and maybe that is--and that is ironic because I am an infantry guy, but in terms of by the time you get there and the changes in technology, I don't know if we can do that, predict the future.    I am still upset that we cut back on the F-22s. I thought it was a great airplane. I think everybody is going back: Oh, we shouldn't have done that. Well, we did that. It was a mistake. Can you tell me why, when the F-4 Phantom came out, we said, ``Oh, we don't need any machine guns on that plane''? This was going to be missile to missile; this is the new warfare. This is talking to a ground guy in Vietnam that was probably saved because they modified that airplane before some of you were born--let me correct that, before most of you in this room were born. But that was a failure to anticipate what was going on with the Air Force.    I am a big, big supporter of airpower and what you have to do. I just have--I don't know if we can predict the future. I would hope that we could have modified the B-1 and the B-2. It scares me when you said we only are going to have 12 flights of B-2s--God almighty--with all of the missiles of the Chinese. Aren't the Russians still flying turbo prop [propeller] bombers around scaring everybody when they come down the English Channel, or maybe that is--but how old is that aircraft? It is not at as old as me, but close. And I am saying they modified that, just like the Chinese, one of the figures I heard was--what?--their budget was 300 percent in the last--increase--in the last 10 years. So I think when we are talking about some of these programs. And as I said, I have been around this planet for a long while. I have seen the F-4, and I have seen that plant on the Connecticut River in the ranking member's district where they spent, I don't know how much money, Pratt &amp; Whitney, to develop a nuclear energy--excuse me, a nuclear engine for an airframe. I won't tell you how many years and how much money that went in. You can tell where that went.    So I have some serious reservations about this. I think we have got to get it right. And I just hope because the more you stick on there and everything else, it gets so expensive that it's going to fail the budgetary wars. And everybody is going to come down and say, what are we going to cut? And I still want more C-17s, I want more lift for marines who have got to go across the Pacific. We can't do it, but you definitely got my attention when you said we are going to go have 12 sorties of B-2s. We have a real problem.    I am going to support it. I just want to make sure we do it right, and I am going to--I notice your name, sir, is very, very close to how I feel right now. And maybe I am the gunslinger here. And you probably have heard something comparable. I don't have a question. I think what you are doing--but we have got to get this right.    The other thing is we don't have 5 years, 10 years, 20 years, because this is a very, very, dangerous--and I wish we could do it just like that. If it was World War II, how long did it take to get the B-29 on line? When we had planes flying around at Pearl Harbor day, the B-18--anyone ever seen that? Whatever happened to B-36, the B-47, the B-58 Hustler? I could go on and on, and I was a marine, but I read a few Air Force books. So thank you very much for your presentation. Sorry I vocalized so much.</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
   </si>
   <si>
     <t>412614</t>
-  </si>
-  <si>
-    <t>Stephen Knight</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman.    Boy, I love the colonel. He brings up a lot of good points, though, he does. In the 1950s, we built the Sentry series in about 5 years, put F-100s in the air, put F-106s in the air in about a 5- or 6-year period. And I bring this up all the time, that building something today with today's knowledge and then thinking 30 years from now might not be the way we should do this. What we might want to do is look back at the 1950s, look back at the 1960s, when we were building multiple aircrafts over a shorter time period. If we are going to build something today and fly the wings off it--we are going to fly the F-35 for 50 years. There is no doubt in my mind that we are going to do that. We are building a bomber right now that we are projecting probably for a 40- or 50-year timeframe. And then probably in 20 years from now, we will start talking about a new bomber.    So I might ask that we think about a new strategy of not flying the wings off and of not buying 100, and then when we need them or when they are down--and I have Edwards Air Force Base in my district. I get to watch the B-2 all the time because there is always one or two of them over there. That means if we have 20 of them and 2 of them are at the test facility, those are not 2 that are capable of going out. And we have to refurbish, and we have to go through the whole process. I have seen this, and I understand that we have learned a whole lot from the B-2 to what we are going to do with a Long-Range Strike Bomber with stealth technology, with the reapplication of the skin, with all these types of technology.    But I would just ask if this is the proper--I will support this as long as we keep the price down and it accomplishes the mission. But is this the proper stance that America should look at? Or maybe should we look at two or three aircraft in a 50-year timeframe, where they overlap, and we are not looking at a 10- or 12-year time period of when we are thinking about it, when we are building it, and when we are testing it, and then it goes IOC [initial operating capability], because this aircraft will not be in the air for that young captain to fly until about 2025? That means today, until then, we have the B-52, the Bone [B-1], and the B-2. So that is my question.    General Elder. Congressman Knight, your point is actually accurate, and I believe, I'm not read in on the program, but based on everything I have heard about the program and the public testimony that--why I keep referring back to this open mission systems and the open architecture. It is a physics problem basically to design a stealth platform in terms of plan, form, and the basic shape that actually makes it stealthy. There are other things you can add to it that make it stealthier, but in terms of adding the capabilities to the platform, in the past, the problem that we had was that if you were going to try to change these things, you had to break into the airplane basically to do it. What they realized after the work, particularly with the B-2, was that they needed to have a way that they could make substantial capability improvements to the airplane, whether that was a weapon system. You have to remember so much of this is involved with the code, but it also has to do with communications. If you need to put a new aperture, as they call it, a new antenna, an aperture on the plane, it would require this major amount of testing. They don't have the problem with the LRS-B, and they have already demonstrated--all three of the vendors involved with this have demonstrated their ability to comply with these open mission standards, and they have various different tests that show that they can make this work. So, in effect, they are actually doing what you have suggested because the airplane that is built in 2025 will be different than the one that is built in 2030 in terms of capabilities it has, but the neat thing is that they will be able to take the one that was built in 2025 and bring it up to that 2030 capability, because they can put the same software and because of the way it has been designed in the first place.</t>
@@ -637,11 +613,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -661,13 +635,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -689,11 +661,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -715,11 +685,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -739,13 +707,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -767,11 +733,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -791,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -819,11 +781,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -843,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -871,11 +829,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -895,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -923,11 +877,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -947,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -973,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1001,11 +949,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1025,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1051,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1077,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1103,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1129,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1155,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1181,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1207,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1233,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1259,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1285,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1311,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1337,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1363,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1389,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1415,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1443,11 +1357,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1467,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1493,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1519,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1545,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1573,11 +1477,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1597,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1625,11 +1525,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1649,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1675,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1701,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1727,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1755,11 +1645,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1781,11 +1669,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1805,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1833,11 +1717,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1857,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1885,11 +1765,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Today the subcommittee meets to discuss the future of Air Force long-range strike capabilities and employment concepts. Our distinguished panel of guests testifying today includes Lieutenant General, retired, Robert J. Elder, Jr., Ph.D., faculty, George Mason University; also Mr. Mark Gunzinger, a senior fellow at the Center for Strategic and Budgetary Assessments; and Dr. Rebecca Grant, president, IRIS Independent Research.    These distinguished guests, we are glad to have you here. You have all done a lot of great work, and we look forward to your testimony this afternoon.    During World War II, America gained the ability to strike targets at long range with its massive bomber force. The Air Force flew thousands of conventional daylight precision bombing missions over Europe and Asia. Crossing thousands of miles of ocean, the war in the Pacific was brought to a decisive end by the nuclear strikes on Hiroshima and Nagasaki. From that point, the United States maintained the robust conventional and nuclear long-range strike capabilities needed to deter the aggression of hostile states and assure the security of our allies around the globe.    As the threat environment evolved, so have our capabilities. Stealth and precision standoff weapons enable our Navy and Air Force to penetrate anti-access environments. Our increasing ability to process, exploit, and disseminate intelligence, surveillance, and reconnaissance information helps deter future conflicts and deescalate regional tensions.    That said, our long-range strike capabilities must evolve further to address the range of challenges posed by the rapid and threatening rise of China; a resurgent and expansionist Russia; a subversive and terrorist-supporting Iran; and an unpredictable and provocative North Korea. China, Russia, and North Korea are established nuclear powers, and Iran, regardless of the negotiated P5 agreement, remains a nuclear threat in the not-so-distant future.    Adding to this complex security environment, I am concerned about Russia and China rapidly fielding highly capable integrated air defense systems and other anti-access capabilities. The proliferation of these weapon systems is eroding our ability to perform long-range strike with our legacy bomber fleet and standoff precision weapons, thus diminishing our ability to deter and respond to aggression.    The current state of our bomber force is of great concern. The newest B-52 bomber is 53 years old. In at least one Air Force family, three generations of airmen have piloted the Stratofortress in combat engagements from Vietnam to Enduring Freedom. As of September 2015, our Air Force bomber force structure consists of 158 &lt;dagger&gt; total bombers--63 B-1s, 20 B-2s, and 76 B-52 aircraft--with an average age of 39 years. Of the total, only 96 are currently funded for combat service.---------------------------------------------------------------------------    &lt;dagger&gt; Correction for the record: The total number of bombers is 159.---------------------------------------------------------------------------    The Air Force plans on recapitalizing B-1 and B-52 force structure with a smaller fleet of 80 to 100 Long-Range Strike Bombers. As we grapple with the proliferation of anti-access systems in contested environments, dwindling force structure, and continuing budget constraints and uncertainty, it is critically important that we identify the long-range strike capabilities and concepts that we need for the future.    Once again, I want to thank our witnesses for participating in our hearing this afternoon, and I look forward to discussing this important topic.    With that, I turn to my good friend and colleague the ranking member of the subcommittee, Joe Courtney.</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you for holding this hearing on our Air Force long-range strike capabilities. Given the impending award of the contract for the Long-Range Strike Bomber in the coming weeks, this is an excellent opportunity to discuss the future of this critical part of our Nation's power projection abilities.    The Air Force long-range bomber fleet has long provided our Nation with a flexible and effective deterrent tool. From composing one the three legs of our strategic triad to providing a full complement of conventional long-range strike options for decision makers, the ability to project power and convincingly strike from far distances is one of the most important components of our military arsenal today.    Our long-range strike fleet, composed of our B-52s, B-1s and B-2s, are also amongst the oldest aircraft inventory today. However, the current timeline projects that the Long-Range Strike Bomber will not actually be ready for operations until 2030, adding 15 years to the average ages of our existing bombers, effectively making the B-52 eligible for Social Security by the time the Long-Range Strike Bomber comes online.    I am interested in hearing from our witnesses about the kinds of ideas they have in regards to sustaining our current fleet in the years before the new bomber comes on line as well as lessons that we should draw from the longevity of these aircraft as they would apply to this new class. The strategic importance of demonstrating our Nation's long-range strike capability cannot be overstated, especially as it applies to the Asia-Pacific region. As noted by one of our witnesses today, Lieutenant General Elder, our bombers were an important part of deterring North Korean sabre-rattling in 2013. When B-52 bombers flew 6,500 miles from Missouri to South Korea to drop bombs on a test range, North Korea quickly toned down its threatening rhetoric, and the bombers effectively deterred further provocation in a volatile region.    As our near-peer competitors, especially China, develop formidable anti-access/area denial technologies, our ability to maintain a military advantage hinges on our ability to penetrate those defenses. I hope our witnesses will share their views with the committee on how the Long-Range Strike Bomber and long-range strike capabilities generally fit into the strategic priorities of the Asia-Pacific rebalance.    This new program is going to occur at a time of intense budget pressure, not just within the Air Force alone but also the entirety of the Department of Defense. Yet, with the aircraft expected to be in service well into this century, it is important that we get this right. As such, it is important that this panel and this Nation fully understand the challenges ahead and the options available to ensure that we retain a credible and robust long-term strike capabilities well into the future.    Thank you again, Mr. Chairman, and I look forward to the discussion today.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gunzinger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gunzinger. Yes, Chairman Forbes, Ranking Member Courtney, members of the subcommittee, thank you as well for inviting us to talk to you today about this really important topic.    I would like to suggest a framework that might help you think about the LRS-B [Long-Range Strike Bomber] and other capabilities in the long-range strike family of systems. Now what I postulate is two competitions. One we call the hiders-finders competition; the other is a salvo competition.    Now the hiders-finders competition, what that is about is developing the capabilities to penetrate contested airspace, contested areas, and an enemy, a thinking enemy who develops countermeasures. It is a cycle. As we develop advantages, they develop countermeasures. Keeping advantage in that cycle in this competition is critically important.    In the 1950s, for example--the B-52 was designed about then; 1952 I think was the first flight--the most significant threat to our bombers was aircraft, interceptors, and surface-to-air fires--artillery. So the B-52 was designed to fly at high altitudes, and they gave it a gun in the tail to defend against fighters until SAMs, surface-to-air missiles, came on the scene in the latter half of that decade in the early 1960s. So the Air Force adapted and started flying B-52s at low altitude so it could terrain mask and hide in ground clutter, and fighters couldn't find them effectively, and it designed the B-1 to be a low-altitude, high-speed sprinter to penetrate contested airspace.    Until, about 1979, DOD [Department of Defense] announced that, well, Russia, or the Soviet Union has developed ``look-down/shoot-down'' radars for its fighters, capable of fighting our bombers at low altitude. So they started a program called the Advanced Technology Bomber Program, which led to the B-2 program to buy 139 B-2s to replace the B-52, and that would be a high-altitude stealthy penetrator. 1990, end of the Soviet Union, we essentially disengaged from this competition. DOD shifted its attention from preparing to fight two regional conflicts against North Korea, Iran, Iraq. They didn't have advanced air defenses, so while it continued to invest in stealth technologies for future platforms, it stopped the B-2 buy at 21 aircraft. And it also shifted the weight of its effort in terms of strike campaigns toward its fighter forces under the assumption that, well, we will be able to deploy our fighter forces very quickly into a theater of conflict, stage them at bases on the borders of our enemies; to bring the high-volume fires. We just didn't need the bombers to do that after the opening stages of a conflict.    The problem is our competitors didn't stop. China, Russia, Iran, and others have developed advanced air defenses--developed them or bought them--that are a real challenge to our current force. So while we modified our current bomber force to stay current and give it new radars and so on over the intervening years, we didn't invest in a new bomber.    Now the second competition is what we call the salvo competition, and that occurs between two adversaries who both have PGMs [precision guided munitions], not just the ability to attack with precision but also defend against the PGMs of an enemy. That is the situation we have today, certainly with Russia, China, North Korea, and Iran. They have capabilities to attack our bases in the western Pacific and the Middle East, all of them. So the assumption DOD made in the 1990s, it said: Well, we will rely mostly for strike on our fighters, and we will stage them really close to bases. Those bases are now at risk. That is an increasingly risky proposition. But we can compensate for that by beginning to use bases that are further away from our adversaries that, frankly, are out of the most immediate threat, out of range of those short-range cruise missiles and ballistic missiles.    And we can also disperse our fighter forces at those close-in bases to expeditionary airfields, civil airfields suitable for military use, as well as military airfields, to complicate the targeting problem of our enemies who have their own PGMs. So what this suggests, both the hider-finder competition and the salvo competition, is we might start thinking about reversing priorities that we established for bombers and fighters back in the 1990s.    Perhaps future air campaigns, the weight of the strike should be provided by long-range strike capabilities. They are stealthy and have large payloads staged at more distant bases. Whereas our fighters at the close-in dispersed posture provide counter-air, help kick down the door, provide close-air support, and other missions rather than relying on those fighters, which have about one-tenth the payload of a bomber and one-fifth the range of a bomber primarily for strike.    The Air Force has made a great start--and DOD has as well--at reengaging in both these competitions with the LRS-B, but it is just a start, and it is only one element of a long-range strike family of systems, which I hope we can get into in your questions. Thank you.    [The prepared statement of Mr. Gunzinger can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mark.    Dr. Grant.</t>
   </si>
   <si>
+    <t>Grant</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Grant. Thank you very much for the opportunity. As my colleagues have said, America's bomber force is one of the truly unique tools of our national security and our international diplomacy. Sadly, today we have at any one time only 16 combat-ready B-2 bombers that are able to take on the most heavily defended types of targets, and it is this situation that we are setting out to correct.    I want to speak very briefly to the capabilities and employment concepts of the bomber and then touch on how the Air Force will manage this program. The first capability, of course, is access, and that does still very much mean stealth. Stealth remains a fundamental design requirement, and we should expect to see improved stealth techniques that have advanced beyond the B-2 and will include electronic warfare and other state-of-the-art survivability techniques.    Range and payload, of course, are what define a bomber and separate it from other types of aircraft. Recall that every bomber design has had to make a tradeoff from the B-17 right to the B-2. So we may expect to see, of course, excellent range, but that will be defined as range from leaving the tanker track. Payload will be a mix of munitions, both the small precise munitions and the heavy munitions for hardened and deeply buried targets. We don't know what parameters the Air Force has chosen this time, but we will expect to see something that has blurred the distinctions between global and theater attack.    Also I think highly important and new in this Long-Range Strike Bomber program will be an open software architecture. That will be very important because this bomber will be new in its communications and data link relay abilities. It should be able to immediately join not only the SATCOM [satellite communications] but the aerial layer networks, those IP [Internet Protocol]-enabled networks that now define the gold standard in battlespace communications.    We expect, of course, for this bomber to roll off with the basics of nuclear capability installed but to proceed to certify that capability quite a bit later after it completes initial flight tests. Most of all I want to see some upgrade capacity here in the winning design. Our bomber will reach initial operating capability perhaps in the mid-2020s--or just a touch later--but continue to operate and fly missions until 2055 and beyond. This bomber, therefore, has to have the ability to do what is asked of it now and also to do a bit more as we look for upgrades and new mission capabilities over time. That means planning now for the airframe with the classic power, space, and cooling, and ability to accommodate those upgrades.    What will this bomber do specifically? It will, of course, participate in the battlespace under joint force commander direction. It will draw on ISR [intelligence, surveillance, reconnaissance], on tankers, and many other things. It will be dependent on stealth fighters, too. But it will have some very unique roles, and those include direct attack; the ability to drop a bomb; not a cruise missile, per se, because cruise missiles are--and other standoff weapons--are not always of capable of taking out every type of target this bomber may be assigned to strike.    We expect that targets in the future that are the most difficult will be a combination of mobile and of separate deeply buried targets. This is a very tough target set, and we need a penetrating bomber with the ability to take out those targets and hold them at risk. We also will see perhaps extensive target sets. A consideration we might not have thought through 5 years ago, but the bomber force here remains a unique strategic tool. It will have to do things like suppress airfields; counter enemy air defenses; and perhaps help hunt, destroy, and contain enemy surface naval vessels and submarines. This points us towards a highly capable force but one that also is big enough to be persistent across these missions. And I echo General Elder's concern; 80 to 100 is a start. I think closer to 150 might be better to assure the persistence in sortie generation.    Let me conclude with a remark about risk reduction and how the Air Force will manage this program. We all are awaiting a down select, and we want to see the best possible stewardship of this important national security capability. The Air Force says that it has taken a rather different approach with this bomber. It has funded both teams to conduct extensive risk reduction of the designs. What this means to us is that the winning design will be far more mature than other types of aircraft programs. And specifically, I believe, quite a bit more mature than the B-2 at a comparable stage of development. This winning design should go into EMD [engineering, manufacturing, development] with some critical work already carried out. For instance, the Air Force has said that they have identified specific risk areas to include propulsion integration--that is the engines--and integration of apertures and antennae, and conducted specific risk-reduction work in these areas. This again marks a bold and different approach, something quite distinct from what we saw with B-2, F-22, or F-35. This means that the Department of Defense's final choice of a winner should reflect analysis of capability, of the ability to proceed quickly through engineering, manufacturing, and development. And it should also reflect some analysis of the winning team's ability to proceed directly toward manufacturing.    To sum it up, the Air Force appears to have taken a rather bold approach, and what this means is we should expect to see a far more mature design. That should also give us in the end confidence in two things: One is the ability to adhere to cost targets from the EMD phase forward; and the second is that the Air Force should be certain that its winning design really has those mandated capabilities and the extra margins that it needs, not only for upgrade capacity for the future, power, cooling, et cetera.    Of course, there are many things in the end that can affect a program, but the risk reduction is unique in this case, has been carried out with a great deal of forethought, and I think should give us a very confident basis from which to proceed to develop a new Long-Range Strike Bomber. Thank you.    [The prepared statement of Dr. Grant can be found in the Appendix on page 49.]</t>
   </si>
   <si>
@@ -106,6 +127,12 @@
     <t>400655</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
+    <t>K.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Thank you, Mr. Chairman.    Thank you for being here.    Being the only CPA [certified public accountant] on the subcommittee panel, I'm trying to do the math. The original version was $550 million a copy? At just--$31 billion or $33 billion was the original cost. How do you buy 100 at $550 million apiece for $33 billion? And how does that get less at $41 billion or $58 billion?</t>
   </si>
   <si>
@@ -160,6 +187,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you so much. Thank you again for being here today.    We talked a lot about what has gone into developing the proposed next generation of LRS [long-range strike]. Are we also looking at the adaptability for the future so that whoever is seated here 10 years from now isn't talking about an already obsolete LRS that we are again having to invest in building new aircraft? Something I think we all should be focusing on is we know what we are capable of today, but are we looking into the future in order of adaptability so we are not pouring additional--huge amounts of resources into future aircraft sooner than we need to? Thank you so much.</t>
   </si>
   <si>
@@ -178,6 +211,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Well, I am going to apologize in advance; I am going to be the cynic here. And, once again, at least with me, I am not as smart as you guys. If you are going to talk with a bunch of acronyms that I don't understand, right away my eyes start to gloss over. If you could kind of ``keep it simple, stupid'' for me, I would appreciate it a little bit.    You know, I am probably one of the biggest hawks on this committee, but it bothers me about things in the future and the amount of money. And maybe I have had too many briefs about the number of missiles that the Chinese are going to throw against aircraft carriers and cruisers and what have you. And they are going to build as many as--maybe one aircraft carrier, they might be able to build, I don't know, 5,000 missiles. I am just looking at it from the CPA standpoint, and maybe that is--and that is ironic because I am an infantry guy, but in terms of by the time you get there and the changes in technology, I don't know if we can do that, predict the future.    I am still upset that we cut back on the F-22s. I thought it was a great airplane. I think everybody is going back: Oh, we shouldn't have done that. Well, we did that. It was a mistake. Can you tell me why, when the F-4 Phantom came out, we said, ``Oh, we don't need any machine guns on that plane''? This was going to be missile to missile; this is the new warfare. This is talking to a ground guy in Vietnam that was probably saved because they modified that airplane before some of you were born--let me correct that, before most of you in this room were born. But that was a failure to anticipate what was going on with the Air Force.    I am a big, big supporter of airpower and what you have to do. I just have--I don't know if we can predict the future. I would hope that we could have modified the B-1 and the B-2. It scares me when you said we only are going to have 12 flights of B-2s--God almighty--with all of the missiles of the Chinese. Aren't the Russians still flying turbo prop [propeller] bombers around scaring everybody when they come down the English Channel, or maybe that is--but how old is that aircraft? It is not at as old as me, but close. And I am saying they modified that, just like the Chinese, one of the figures I heard was--what?--their budget was 300 percent in the last--increase--in the last 10 years. So I think when we are talking about some of these programs. And as I said, I have been around this planet for a long while. I have seen the F-4, and I have seen that plant on the Connecticut River in the ranking member's district where they spent, I don't know how much money, Pratt &amp; Whitney, to develop a nuclear energy--excuse me, a nuclear engine for an airframe. I won't tell you how many years and how much money that went in. You can tell where that went.    So I have some serious reservations about this. I think we have got to get it right. And I just hope because the more you stick on there and everything else, it gets so expensive that it's going to fail the budgetary wars. And everybody is going to come down and say, what are we going to cut? And I still want more C-17s, I want more lift for marines who have got to go across the Pacific. We can't do it, but you definitely got my attention when you said we are going to go have 12 sorties of B-2s. We have a real problem.    I am going to support it. I just want to make sure we do it right, and I am going to--I notice your name, sir, is very, very close to how I feel right now. And maybe I am the gunslinger here. And you probably have heard something comparable. I don't have a question. I think what you are doing--but we have got to get this right.    The other thing is we don't have 5 years, 10 years, 20 years, because this is a very, very, dangerous--and I wish we could do it just like that. If it was World War II, how long did it take to get the B-29 on line? When we had planes flying around at Pearl Harbor day, the B-18--anyone ever seen that? Whatever happened to B-36, the B-47, the B-58 Hustler? I could go on and on, and I was a marine, but I read a few Air Force books. So thank you very much for your presentation. Sorry I vocalized so much.</t>
   </si>
   <si>
@@ -185,6 +224,12 @@
   </si>
   <si>
     <t>412614</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman.    Boy, I love the colonel. He brings up a lot of good points, though, he does. In the 1950s, we built the Sentry series in about 5 years, put F-100s in the air, put F-106s in the air in about a 5- or 6-year period. And I bring this up all the time, that building something today with today's knowledge and then thinking 30 years from now might not be the way we should do this. What we might want to do is look back at the 1950s, look back at the 1960s, when we were building multiple aircrafts over a shorter time period. If we are going to build something today and fly the wings off it--we are going to fly the F-35 for 50 years. There is no doubt in my mind that we are going to do that. We are building a bomber right now that we are projecting probably for a 40- or 50-year timeframe. And then probably in 20 years from now, we will start talking about a new bomber.    So I might ask that we think about a new strategy of not flying the wings off and of not buying 100, and then when we need them or when they are down--and I have Edwards Air Force Base in my district. I get to watch the B-2 all the time because there is always one or two of them over there. That means if we have 20 of them and 2 of them are at the test facility, those are not 2 that are capable of going out. And we have to refurbish, and we have to go through the whole process. I have seen this, and I understand that we have learned a whole lot from the B-2 to what we are going to do with a Long-Range Strike Bomber with stealth technology, with the reapplication of the skin, with all these types of technology.    But I would just ask if this is the proper--I will support this as long as we keep the price down and it accomplishes the mission. But is this the proper stance that America should look at? Or maybe should we look at two or three aircraft in a 50-year timeframe, where they overlap, and we are not looking at a 10- or 12-year time period of when we are thinking about it, when we are building it, and when we are testing it, and then it goes IOC [initial operating capability], because this aircraft will not be in the air for that young captain to fly until about 2025? That means today, until then, we have the B-52, the Bone [B-1], and the B-2. So that is my question.    General Elder. Congressman Knight, your point is actually accurate, and I believe, I'm not read in on the program, but based on everything I have heard about the program and the public testimony that--why I keep referring back to this open mission systems and the open architecture. It is a physics problem basically to design a stealth platform in terms of plan, form, and the basic shape that actually makes it stealthy. There are other things you can add to it that make it stealthier, but in terms of adding the capabilities to the platform, in the past, the problem that we had was that if you were going to try to change these things, you had to break into the airplane basically to do it. What they realized after the work, particularly with the B-2, was that they needed to have a way that they could make substantial capability improvements to the airplane, whether that was a weapon system. You have to remember so much of this is involved with the code, but it also has to do with communications. If you need to put a new aperture, as they call it, a new antenna, an aperture on the plane, it would require this major amount of testing. They don't have the problem with the LRS-B, and they have already demonstrated--all three of the vendors involved with this have demonstrated their ability to comply with these open mission standards, and they have various different tests that show that they can make this work. So, in effect, they are actually doing what you have suggested because the airplane that is built in 2025 will be different than the one that is built in 2030 in terms of capabilities it has, but the neat thing is that they will be able to take the one that was built in 2025 and bring it up to that 2030 capability, because they can put the same software and because of the way it has been designed in the first place.</t>
@@ -563,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,1181 +638,1393 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Courtney</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>400655</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Conaway</t>
@@ -608,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,1390 +653,1504 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
